--- a/data/salinity-dataset.xlsx
+++ b/data/salinity-dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbindas/Desktop/WappingersCreekResearch/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237EF747-3A33-ED4A-B439-DF33D3C1A43E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3188BE9-6784-7E40-BD0A-3A6A4959BADB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,7 +162,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -250,7 +250,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -575,8 +575,8 @@
   </sheetPr>
   <dimension ref="A1:AB100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
